--- a/biology/Zoologie/Achoerodus_gouldii/Achoerodus_gouldii.xlsx
+++ b/biology/Zoologie/Achoerodus_gouldii/Achoerodus_gouldii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achoerodus gouldii (Richardson 1843) est une espèce de poissons de la famille des Labridae. C’est l'espèce type du genre Achoerodus.
 John Richardson avait décrit l'espèce dans le genre Labrus, elle transférée dans le genre Achoerodus par Theodore Gill à la création du genre (1863).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’espèce est présente sur le plateau continentale au sud de l'Australie.
 </t>
